--- a/samples/SA-عينة-منتجات-العطور-preview.xlsx
+++ b/samples/SA-عينة-منتجات-العطور-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -37,139 +37,124 @@
     <t>Image Name</t>
   </si>
   <si>
-    <t>ميس ديور رولر بيرل أو دو تواليت 20ملMiss Dior Eau de Toilette</t>
-  </si>
-  <si>
-    <t>كلايف كريستيان ذكرى 150 سنة كونتيمبوراري النسائي 50 مل</t>
-  </si>
-  <si>
-    <t>إستي لودر سينابار 50مل Cinnabar Estée Lauder</t>
-  </si>
-  <si>
-    <t>عطر جيمي شو اي ونت شو او دو بارفيوم-100مل</t>
-  </si>
-  <si>
-    <t>ديور جادور انفينيسيم او دو بارفيوم 100مل Dior J'Adore Infinissime Eau de Parfum</t>
-  </si>
-  <si>
-    <t>عطر بوديسيا ذا فيكتوريوس هيروين 100 مل Boadicea The Victorious Heroine</t>
-  </si>
-  <si>
-    <t>عطر برفلج أودو تواليت للنساء - 100مل Privilege Parfums Privilege</t>
-  </si>
-  <si>
-    <t>بيرفيومز جريس كابوتين دو جريس 100 مل Cabotine Grès</t>
-  </si>
-  <si>
-    <t>عطر جورجيو أرماني ماي واي انتينس 90 مل My Way Giorgio Armani</t>
-  </si>
-  <si>
-    <t>كيليان قود قيرل او دو اكستريم 50 مل Extreme By Kilian</t>
-  </si>
-  <si>
-    <t>عطر Muskane من نيشاني للنساء - او دو برفيوم Nishane Muskane Eau de Parfum 100ml</t>
-  </si>
-  <si>
-    <t>عطر قوتشي غليتي بور فيم الابيض انتنس او دو بارفيوم 90مل Gucci Guilty Pour Femme Intense Eau de Parfum 90ml</t>
-  </si>
-  <si>
-    <t>كيليان قود قيرل او دو بارفيوم 50 مل Good Girl Gone Bad By Kilian</t>
-  </si>
-  <si>
-    <t>عطر اميز مول 100 مل Caron AIMEZ MOI</t>
-  </si>
-  <si>
-    <t>عطر فلوريس لندن شيري بلوسوم 100 مل Cherry Blossom Floris</t>
-  </si>
-  <si>
-    <t>عطر بوديسيا ذا فيكتوريوس كاربون سافير 100 مل Boadicea the Victorious Carbon Sapphire</t>
-  </si>
-  <si>
-    <t>عطر بيريدو بيبليوتيك او دو بارفيوم 100 مل Bibliothèque Byredo</t>
-  </si>
-  <si>
-    <t>عطر بوديسيا ذا فيكتوريوس ديكاد 100 مل Decade Boadicea the Victorious</t>
-  </si>
-  <si>
-    <t>عطر إيتا ليبري دي أورانج ريماركابل بيبول 100 مل Remarkable People Etat Libre d'Orange</t>
-  </si>
-  <si>
-    <t>تستر شوبارد نويت دي روز أو دو بارفيوم 100مل Chopard Nuit Des Rois</t>
-  </si>
-  <si>
-    <t>عطر شوبارد نويت دي روز أو دو بارفيوم 100مل Chopard Nuit Des Rois</t>
-  </si>
-  <si>
-    <t>عطر بوافر امبريال كارون 100مل Caron Poivre Impérial</t>
-  </si>
-  <si>
-    <t>عطر كارون سكير 100 مل Caron Poivre Sacre</t>
-  </si>
-  <si>
-    <t>عطر هاشيفات عود نيشاني 50 مل Hacivat Oud Nishane</t>
-  </si>
-  <si>
-    <t>تستر فايف من دار روسيندو ماتيو 100 مل Rosendo Mateu Nº 5</t>
-  </si>
-  <si>
-    <t>تستر فلوف توندر لي ليكيد ايماجينار 100مل Fleuve Tendre Liquides Imaginaires</t>
-  </si>
-  <si>
-    <t>تستر إسنتريك موليكيولز اسنتريك 02 100 مل 02 Escentric Molecules</t>
-  </si>
-  <si>
-    <t>عطر مين نيويورك بيور هارت MiN New York pure heart 75 Ml</t>
-  </si>
-  <si>
-    <t>عطر سادوناسو من ناسوماتو 30 مل Sadonaso Nasomatto</t>
-  </si>
-  <si>
-    <t>عطر ثمين ذا هوب - 50 مل Thameen The Hope Edp 50 Ml .</t>
-  </si>
-  <si>
-    <t>تستر عطر كلايف كريستيان سي وودي ليذر 50 مل C for Men Woody Leather With Oudh Intense Clive Christian</t>
-  </si>
-  <si>
-    <t>عطر بولغاري لو جيم ياسيب 100 مل Yasep Bvlgari</t>
-  </si>
-  <si>
-    <t>رالف لورين بولو سوبريم كشمير 125مل Polo Supreme Cashmere Ralph Lauren</t>
-  </si>
-  <si>
-    <t>جون فارفاتوس فينتج 125 مل Vintage John Varvatos</t>
-  </si>
-  <si>
-    <t>كارون بور أن أوم دي كارون500 مل Pour Un Homme de Caron Caron</t>
-  </si>
-  <si>
-    <t>عطر تونكا كولا مانسيرا ادو بارفيوم للرجال 120 مل Tonka Cola Mancera</t>
-  </si>
-  <si>
-    <t>تستر مارلي بيجاسوس او دو بارفيوم 125 مل Parfums de Marly Pegasus Eau de Parfum</t>
-  </si>
-  <si>
-    <t>عطر مارلي ليتون إكسكلوسيف أو دو برفيوم 125 مل Layton Exclusif Parfums de Marly</t>
-  </si>
-  <si>
-    <t>تستر كارون بور أن أوم دي كارون 125 مل Pour Un Homme de Caron Caron</t>
-  </si>
-  <si>
-    <t>عطر بولغاري لو جيم جرانات 100 مل Garanat Bvlgari</t>
-  </si>
-  <si>
-    <t>تستر جورجو ارماني أكوا دي جيو أو دو بارفيوم 75 مل Giorgio Armani Acqua Di Gio Eau de Parfum</t>
-  </si>
-  <si>
-    <t>رالف لورين بولو ريد إكستريم 125 مل Polo Red Extreme Ralph Lauren</t>
-  </si>
-  <si>
-    <t>عطر كوستوم ناشونال أوم برفيوم 100 مل Costume National Homme Parfum</t>
-  </si>
-  <si>
-    <t>فيراري سكوديريا بلاك 125مل Scuderia Ferrari Black Ferrari</t>
-  </si>
-  <si>
-    <t>كالفن كلاين اتيرنتي للرجال 100 مل Eternity For Men Calvin Klein</t>
+    <t>ميس ديور رولر ...</t>
+  </si>
+  <si>
+    <t>كلايف كريستيان...</t>
+  </si>
+  <si>
+    <t>إستي لودر سينا...</t>
+  </si>
+  <si>
+    <t>عطر جيمي شو اي...</t>
+  </si>
+  <si>
+    <t>ديور جادور انف...</t>
+  </si>
+  <si>
+    <t>عطر بوديسيا ذا...</t>
+  </si>
+  <si>
+    <t>عطر برفلج أودو...</t>
+  </si>
+  <si>
+    <t>بيرفيومز جريس ...</t>
+  </si>
+  <si>
+    <t>عطر جورجيو أرم...</t>
+  </si>
+  <si>
+    <t>كيليان قود قير...</t>
+  </si>
+  <si>
+    <t>عطر Muskane من...</t>
+  </si>
+  <si>
+    <t>عطر قوتشي غليت...</t>
+  </si>
+  <si>
+    <t>عطر اميز مول 1...</t>
+  </si>
+  <si>
+    <t>عطر فلوريس لند...</t>
+  </si>
+  <si>
+    <t>عطر بيريدو بيب...</t>
+  </si>
+  <si>
+    <t>عطر إيتا ليبري...</t>
+  </si>
+  <si>
+    <t>تستر شوبارد نو...</t>
+  </si>
+  <si>
+    <t>عطر شوبارد نوي...</t>
+  </si>
+  <si>
+    <t>عطر بوافر امبر...</t>
+  </si>
+  <si>
+    <t>عطر كارون سكير...</t>
+  </si>
+  <si>
+    <t>عطر هاشيفات عو...</t>
+  </si>
+  <si>
+    <t>تستر فايف من د...</t>
+  </si>
+  <si>
+    <t>تستر فلوف توند...</t>
+  </si>
+  <si>
+    <t>تستر إسنتريك م...</t>
+  </si>
+  <si>
+    <t>عطر مين نيويور...</t>
+  </si>
+  <si>
+    <t>عطر سادوناسو م...</t>
+  </si>
+  <si>
+    <t>عطر ثمين ذا هو...</t>
+  </si>
+  <si>
+    <t>تستر عطر كلايف...</t>
+  </si>
+  <si>
+    <t>عطر بولغاري لو...</t>
+  </si>
+  <si>
+    <t>رالف لورين بول...</t>
+  </si>
+  <si>
+    <t>جون فارفاتوس ف...</t>
+  </si>
+  <si>
+    <t>كارون بور أن أ...</t>
+  </si>
+  <si>
+    <t>عطر تونكا كولا...</t>
+  </si>
+  <si>
+    <t>تستر مارلي بيج...</t>
+  </si>
+  <si>
+    <t>عطر مارلي ليتو...</t>
+  </si>
+  <si>
+    <t>تستر كارون بور...</t>
+  </si>
+  <si>
+    <t>تستر جورجو ارم...</t>
+  </si>
+  <si>
+    <t>عطر كوستوم ناش...</t>
+  </si>
+  <si>
+    <t>فيراري سكوديري...</t>
+  </si>
+  <si>
+    <t>كالفن كلاين ات...</t>
   </si>
   <si>
     <t>320 SAR</t>
@@ -265,133 +250,121 @@
     <t>180 SAR</t>
   </si>
   <si>
-    <t xml:space="preserve">عطر Miss Dior Eau de Toilette الجديد هو زوبعة زهرية منعشة.  رقصت رقصة الفالس المجنونة حول Grasse Rose وحجاب من Lily of the Valley خفيف مثل ثوب نسائي من التول.  ملكة جمال Dior المتألقة التي ترمي بنفسها بقوة في إنهاء زوبعة الحياة والحب. يحتوي Miss Dior Eau de Toilette في زجاجة سفر جديدة ثمينة: ​​Roller-Pearl.  الزجاجة مغطاة بلؤلؤة رقيقة لتطبيق العطر مجانًا وسهل.  لمسات العطر ، لتكملة عطرك أو لتعطيرك أثناء التنقل ، فإن Miss Dior Eau de Toilette Roller-Pearl جميل مثل الأحجار الكريمة. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">استوحت الماركة هذا العطر العصري من الكولونيا الفيكتورية الكلاسيكية، فهو يفوح بعبير منعش غني بنفحات الزنجبيل والليمون الأخضر واللافندر الإنجليزي الكلاسيكي ممزوجة مع مكونات أساسية دافئة من المسك والعنبر والجلد. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن العطر:أنتي على موعد مع ليلة رومانسية مثيرة مع عطر سنيابار الدافئ من إستي لودر، فهو عطر يشبع تطلعات المرأة للغموض والغرابة، وذلك بفضل مكوناته الشرقية الغنية التي تمنح الدفء لساعات طويلة.  العطر يدوم لفترة طويلة مهما كان طول اليوم، كما أن رائحته قوية ستغلب أي روائح أخرى حولك وستجعلك دائماً متميزة وجذابة. نبذة عن الماركة:إستي لودر هي شركة أمريكية تأسست في عام 1946 في مدينة نيويورك، واكتسبت السيدة لودر خبرة مبكرة في صناعة العناية بالبشرة ومستحضرات التجميل تحت رعاية عمها الكيميائي وأخصائي العناية بالبشرة، حتى ذاع صيتها في تقديم المنتجات المختلفة الرائعة مثل مستحضرات التجميل والعطور.  تم الإعلان عن العطر الأول من إستي لودر في عام 1953. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">هو عطر شرقي زهري قوي ينفجر بالبهجة وينتهي بلمسة مغرية. الإثارة والترقب: الرائحة الحمضية المتألقة لعصير الماندرين تتناقض مع الفروق الدقيقة من الخوخ المخملي. تمتزج الروائح الحسية والشبيهة بفانيليا من المكونات الأساسية من الفانيليا والبنزوين، وهما ثنائي من الروائح القوية الغنية، ترسي العطر بطريقة عميقة ومبهجة، تاركة وراءها أثراً قوياً. افتتاحية العطر: عصير الماندرين ورائحة الحمضيات يقابلها الخوخ المخملي. قلب العطر: الياسمين والزنبق الأحمرقاعدة العطر: دمج بين روائح الفانيليا والبنزوين القوية. </t>
-  </si>
-  <si>
-    <t>الخط العطري : اورينتال فلورا عطر جادور انفينيسيم J'Adore Infinissime fragrance من اصدارات بيت الأزياء الفرنسي الشهير كريستيان ديور Christian Dior.  عطر J'Adore Infinissime أنثوي رقيق بعبير شرقي زهري.  تم اطلاق العطر حديثاً في عام 2020.  سلسلة عطرية منعشة تشذو بعبق عطري فواح يلهم الحواس وتبدأ بنكهة ملتهبة مع الفلفل الوردي، برتقال دم الزغلول والبرغموت.  مروراً في قلب التكوين مع مسك الروم، زنبق الوادي، يلانج يلانج، ياسمين والورد.  أما قاعدة التكوين فتختتمها لتستقر برفقة خشب الصندل.  يحمل العطر توقيع الخبيرFrancois Demachy. Dior J'Adore Infinissime Eau de Parfum 100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن العطر:- عطر بوديسيا هيروين ينخرط في مزاج الاحتفال بانتصارات الملكة المحاربة البريطانية. - يأسر هذا العطر كل من يرتديه برائحة مسكرة قوية من البرتقال، والبنفسج، والبرغموت. - تدور روائح الياسمين والورد في قلب المعركة لاستحضار الصور المنتصرة. - تزداد أجواء الاحتفال برائحة غنية من الفانيليا والمسك والأوريس ونجيل الهند التي تعمل على إضفاء أجواء الاحتفال. - يشعرك وكأنه محارب عصري فاز في جميع المعارك بانتصار جميل. نبذة عن الماركة:بوديسيا ذا فيكتوريوس هي علامة تجارية بريطانية حديثة تأسست عام 2008، وقد أستلهمت عطورها من التاريخ الإنجليزي العبق وتجسدت فيها روعة التراث القديم وقدمت مجموعة كبيرة من العطور المحايدة للجنسين وانتشرت في العديد من الاسواق حول العالم ولم يتوقف انتاجها حتى هذا العام. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر برفلج أودو تواليت للنساء - 100ملأطلقه بيت التصميم (بريفيليج) سنة (1986)ويصنف كعطر شرقي حاد. هذه الرائحة الأنثوية تحتوي على مزيج من : أزهار الياسمين ، والفواكه الغريبة. </t>
-  </si>
-  <si>
-    <t>عطر شرقي زهري ساحر بتوليفة خاصة جداً تناسب الأشخاص المهتمين بالتفاصيل الدقيقة المحبين للحصول على مظهر مميز وجذاب، العطر مصنوع بدقة واحتراف عالي ليمثل إضافة قوية ومميزة لمجموعة الجمال الخاصة بك غني بروائح الخوخ والكزبرة مع لمسات حارة من القرنفل وجذور السوسن التي تمنحه تركيز وثبات عالي ليدوم معك حتى انتهاء يومك المميزنبذة عن الماركة:جريس هي دار أزياء فرنسية أول ظهور لها كان في عام 1934 وتخصصت في صنع قبعات النساء بتصميماتها الأنيقة والمميزة ثم أطلقت أول عطر لها عام 1959 وكانت إصداراتها جميعاً في عالم العطور تتميز بطابع خاص ومميز مما حقق لها مبيعات عالية ونجاح مبهر وسريع في كل الأسواق</t>
-  </si>
-  <si>
-    <t>مقدمة العطر: البرتقال المر، زهر البرتقال المصريقلب العطر: مسك الروم الهندي، ياسمين سامباك الهنديقاعدة العطر: خشب الصندل من كاليدونيا، فانيلا بوربون من مدغشقر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تدفع دار كيليان باثنين من عطورها الشهيرة إلى أقصى حدودهما الحسية.  إلهام: جود جيرل جون باد من كيليان - إكستريم مغطوس في إكسير بلمسات صافية لذيذة من الحليب و الكراميل. بمراجعته لدوامة الزهور المنطلقة من جود جيرل جو باد من كيليان، يحيطها بلمسة حليبية فاتنة.   التاريخ: ينفتح على باقة من ورود مايو و زهر الليمون الرائع، تحمله في قلبها أغنية ثلاث حوريات: مسك الروم، ياسمين سامباك المصري و النرجس. هذه الزهور نصف البريئة و نصف الماكرة، المغلفة بإكسير من لمسات الكراميل اللذيذة، تفيض جاذبية و فتنة. نغمات عطرية: زهر الليمون، مسك الروم و الحليب. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر زهري - فواكه للرجال و النساء .  هذا عطر جديد Muskane تم إصداره عام 2019.  Chris Maurice قام بتوقيع هذا العطر.  مقدمة العطر توت العليق; قلب العطر البنفسج, الورد و العنبر; قاعدة العطر تتكون من المسك و الفانيليا. </t>
-  </si>
-  <si>
-    <t>الخط العطري: عنبر فلورالGucci Guilty Eau de Parfum Intense Pour Femme Gucci عطر شرقي - زهري للنساءهذا عطر جديد Gucci Guilty Eau de Parfum Intense Pour Femmeصدر عام 2022إفتتاحية العطر البنفسج, ماندورا و الليتشيقلب العطر البرقوق, مسك الروم و الإيلنغقاعدة العطر تتكون من الباتشولي, الفانيليا و نجيل الهند. Gucci Guilty Pour Femme Intense Eau de Parfum 90ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر زهري فواكه للنساء . مقدمة العطر الياسمين, الأوثامنتوس و ورد مايقلب العطر مسك الروم الهندي و النرجسقاعدة العطر تتكون من العنبر و أخشاب الأرز. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">أميز موا هو ابتكار مؤذ يمنح البنفسج مظهرًا فريدًا.  يأخذك على حين غرة من خلال الجمع بين المكونات العشبية لليانسون النجمي.  بودرة السوسن ، يتم تلطيف البنفسج من خلال الروائح المخملية لماغنوليا والخوخ.  قلب دافئ ولذيذ ينفخ فيه اليانسون والبرغموت والنعناع ريحًا منعشة من الانتعاش ، مما يخلق إدمانًا لم نشعر به من قبل.  هذا العطر الرومانسي والمبهج والأصلي والمثير للدهشة هو رفيق المرأة التي لا يحتاج توهجها المتوهج إلى زينة. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر للنساء ذوات الشخصية القوية لكي تظهر بسحر أنثوي خلاب من العائلة العطرية الزهرية بالفواكه، تذكرك الرائحة بالتقليد الياباني الـهـانـامـي الذي يعني مشاهدة الزهور.  تتألف الروائح العليا للعطر من العديد من الروائح المُنعشة من الفلفل الوردي والبرتقال والبرغموت التي تملأ القلب بهجة، أما قلب العطر فيفوح بعبير الفاوانيا وزهر الكرز والورد، والقاعدة تتكون من خشب الصندل والمسك، لتكون مجموعة متناغمة من النفحات العطرية الدافئة.  يمكن للمرأة أن تستخدم هذا العطر الدائم لتخيل أزهار الكرز الجميلة. نبذة عن الماركة:فلوريس لندن هي واحدة من أقدم العلامات التجارية للعطور في لندن، والتي تأسست عام 1730 على يد خوان فامينيس فلوريس وإليزابيث فلوريس.  في البداية كان المتجر يبيع منتجات العناية بالرجال وبدأت في بيع العطور عام 1786.  واليوم، تقدم الدار أكثر من 54 عطراً، تتضمن مختلف العطور المعاصرة، وكذلك العطور الكلاسيكية من القرن الثامن عشر. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن العطر:- عطر بوديسيا كاربون سافير يغلف الكون الناري باعتباره القوة الحقيقية للطبيعة. - يتميز هذا العطر النقي بمكوناته الثمينة للغاية. - ناهيك عن أن هذا العطر النجمي الفريد يتكون من عود الصافي، أحد أغلى أنواع العود في جميع أنحاء العالم. - العطر مليء بالإثارة الفائضة، يهمس بنعومة وجمال على بشرتكنبذة عن الماركة:بوديسيا ذا فيكتوريوس هي علامة تجارية بريطانية حديثة تأسست عام 2008، وقد أستلهمت عطورها من التاريخ الإنجليزي العبق وتجسدت فيها روعة التراث القديم وقدمت مجموعة كبيرة من العطور المحايدة للجنسين وانتشرت في العديد من الاسواق حول العالم ولم يتوقف انتاجها حتى هذا العام. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الخط العطري: فلورا وودي مسكعطر بيبليوتيك بيريدو (Bibliothèque Byredo) . من دار الأزياء السويدي (Byredo). العطر للرجال والنساء. ينتمي هذا العطر الراقي للعائلة العطرية زهري - خشبي - مسك. صدر هذا العطر النيش في عام 2017. يحتوي هذا العطر الفخم على رائحة الخوخ و البرقوق والفاوانيا و البنفسج والجلد والباتشولي والفانيلا والمسك. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر شرقي - زهري للجنسين.  Decade صدر عام 2019.  إفتتاحية العطر الورد البلغاري, الأناناس, الألدهيدات, الزعفران و البرغموت; قلب العطر ورود دي ماي, إبره الراعي, البنفسج و جزئ هديون; قاعدة العطر تتكون من المسك, أخشاب الغاياك, السيبرول (الناجراموثا), العنبر و الباتشولي. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">أنت على موعد مع الأناقة والجاذبية، دع العطر يتحدث نيابة عنك في أي مكان تذهب إليه، بفضل المزيج الرائع بين الجريب فروت والحبهان ومسحة خفيفة من خشب الصندل الكريمي، والذي يبقى تأثيره على الجلد ويدوم لفترات طويلة، إنه العطر المثالي لأناس غير عاديين وذوو كاريزما عالية. نبذة عن الماركة:إيتات ليبر دي أورانج هي علامة تجارية فرنسية للعطور، قدمت أولى عطورها عام 2006 وأحدث إصداراتها عام 2019، حيث تقدم تتشكيلة عطرية مميزة تتفرد إلى الجرأة والحرية والتفرد، بالإضافة لتركيباتها العطرية المذهلة حيث لا قيود على الإبداع والمواد الخام وحتى التكلفة، وهذا ما جعلها حازت على إعجاب الكثير والكثير من المعجبين المتحمسين. </t>
-  </si>
-  <si>
-    <t>المكوناتزهر السوسن، زهرة بلغاريا، الزعفران، نيورلي، البرتقال، حب الهال، العسل، الفانيليا، خشب الصندل، خشب الغاياك، خشب العود، العود اللاوسينسبة التركيزأو دو برفيومالنوتات العُليازهر السوسن، زهرة بلغارياالنوتات المتوسطةالزعفران، نيورلي، البرتقال، حب الهال، العسل، الفانيلياالنوتات القاعديةخشب الصندل، خشب الغاياك، خشب العود، العود اللاوسي</t>
-  </si>
-  <si>
-    <t>يتم دفن ثنائي من الفلفل (الفلفل الأسود وسيشوان) بواسطة نوتة الزعفران ، ويتم جلفنه بالبخور.  يؤكد هذا الراتنج المقدس على توابله ويمنحه بعض القوة.  البداية لها طابع! خلف هذا التدفق من التوابل ، ينفتح القلب الزهري مثل كورولا زهرة اللوتس.  الورد التركي ،</t>
-  </si>
-  <si>
-    <t>حول الفلفل: خلاصة الفلفل الأسود في مدغشقر ، خلاصة الزعفران ، خلاصة الكمون ، الوردحول البخور : خلاصة اللبان ، راتنج اللبان ، اللابدانوم الجلدي ، خلاصة الباتشولي ، خلاصة خشب الجاياك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر للجنسين.  هذا عطر جديد Hacivat Oud صدر عام 2023.  Dominique Ropion قام بتوقيع هذا العطر.  إفتتاحية العطر الحمضيات, الأناناس, الفلفل الأسود و الفلفل الوردي; قلب العطر لبان, اللبان و الياسمين; قاعدة العطر تتكون من نجيل الهند من هايتي, العود, الباتشولي و الفانيليا. </t>
-  </si>
-  <si>
-    <t>عطر فايف من دار روسيندو ماتيو الاسبانية هو عطر شرقي زهري يفتتح بنفحات عطرية تابلية متعانقة مع عبير الليلك بعدها يتجلى لنا عبير الفانيليا الدافئ و المثير يكمله العنبر و المسك ليعطي روحاً شرقية جذابة يعبر هذاالعطر عن تأثير الأزهار في الطبيعة خاصة عندما يتم خلطها مع العنبر و الفانيليا هذا العطر هو كحلم شرقي ساحر على داخل زجاجة عطرية الطبقة الاولى: كارنيشن، ليلكالطبقة الثانية: عنبرالقاعدة: فانيليا، مسك</t>
-  </si>
-  <si>
-    <t>عطر زهري - خشبي - مسك للجنسين.  Fleuve Tendre صدر عام 2017.  Sonia Constant قام بتوقيع هذا العطر.  إفتتاحية العطر الماندرين (اليوسفي), الهيل, الكمون, الكزبرة, الزعفران, جوزه الطيب و الفلفل الأسود; قلب العطر المسك, نوتة حيوانية, إبره الراعي, ماء الورد و بيتاليا; قاعدة العطر تتكون من المسك, نجيل الهند, الزباد, البخور, جلد الغزال (الجلد المدبوغ), حبوب التونكا و الباتشولي. ملاحظة / التستر في عذا العطر بدون غطاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر إسنتريك موليكيولز إسنتريك 2 هو عطر شرقي زهري للرجال والنساء.  حيث يتألف من الأمبروكسان وهو شكل مختلف من مكونات العنبر الطبيعية، كما تعتبر مثالية لأي شخص من أي جنس يرتديها على مدار اليوم، فهو عطر غير عادي دون أن يكون غريباً ، وبسيطاً دون أن يكون مملاً. نبذة عن الماركة:إسينتريك موليكيولز تدين بوجودها إلى جزيء عطري غير موجود في الطبيعة، حيث تم إنشاء أيزو إي سوبر مختبرياً عام 1973، وظل غير معروف خارج عالم العطور حتى إطلاق عطور سينتريك موليكيولز، على الرغم من أن وجوده بعيد المنال إلا أنه يحوم بتركيزات منخفضة نسبيًا في خلفية العديد من العطور للرجال والنساء على حد سواء، فهو مشهور بتأثيره المخملي. </t>
-  </si>
-  <si>
-    <t>الافتتاحية: التوت الأحمر ، توت العرعر ، الهيل ، الكشمش الأسودالقلب: زهور ، ياسمينالقاعدة: طحلب البلوط ، خشب الأرز ، فيتيفير ،</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadonaso Nasomatto عطر للجنسين.  هذا عطر جديد Sadonaso صدر عام 2023.  Alessandro Gualtieri قام بتوقيع هذا العطر. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر ثمين ذا هوب او دو بارفيوم للجنسين 50 مل . - دار : ثمين Thameen . - سنة الاصدار : 2015 . - العائلة العطرية :شرقي - خشبي . - الجنس : للجنسين . - الحجم : 50 مل . - مقدمة العطر القرفه قرنفل المر قلب العطر أخشاب الأرز دهب الشمس العود قاعدة العطر العنبر الأسود عدان نجيل الهند المسك . - التركيز : او دو بارفيوم . - Thameen The Hope Edp 50 Ml . </t>
-  </si>
-  <si>
-    <t>عطر شرقي ذكوري قوي ومتوهج غني بحرارة الزعفران وعبق العود الشرقي العريق مع مزيج مدهش من الروائح الشرقية التي تعبر عن روحك العصرية وأناقتك الحديثة المتقدمة دائماً، العطر يمنحك مظهراً خاصاً ومميزاً يجعلك تحظى بانتباه الجميع مع ظهورك الأول في كل المجتمعات والمحافل ويبقى معك حتى لحظاتك الأخيرة بدون تلاشينبذة عن الماركة:كلايف كريستيان هي علامة تجارية بريطانية عريقة ومشهورة بصنع أجود العطور حول العالم من المكونات النادرة والفاخرة وتبيع عطورها الأعلى سعراً في جميع الأسواق العالمية.  تأسست الشركة عام 1999 بعد استحواذ صاحب الاسم على دار العطور القديمة كروان برفيوميري التي يرجع تاريخ إنشاءها لعام 1872 في لندن وتقوم فلسفة الشركة على تصنيع العطور التي تعبر عن جمال الحياة قبل ألف عام</t>
-  </si>
-  <si>
-    <t>في رحلة فريدة لمدغشقر عثرنا على الطاقة الحسية للإله الروماني مارس واستخلصنا منها عطر جريء وحيوي يشبه الأحجار الكريمة الحمراء غني بأناقة المسك الفاخرة ممزوجاً مع دفء خشب الصندل الذي يمنحك القوة والحيوية التي تساعدك في الانطلاق في كل أيام حياتكنبذة عن الماركة:بولغاري هي دار عطور إيطالية عريقة أسسها سوتيريوس فولجاري في إيطاليا عام 1884 وقد استبدل حرف "U" بحرف "V" في اسم الشركة اقتداءً باللغة اللاتينية القديمة التي هي لغة موطنه الأصلي اليونان، وافتتح أول منفذ بيع للعطور التي أنتجها عام 1905 في فيا دي كوندوتي وعرض خلاله مجموعة من أفخم وأرقى العطور الرجالية والنسائية وسرعان ما اشتهر وافتتح له منافذ بيع في الأسواق الدولية في نيويورك وجينيف وغيرها حول العالم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن العطر:عطر أو دو برفيوم شرقي للرجال، يباغتك لأول وهلة بنسيم مفعم بروائح الالبرغموت، الهيل ثم يلفت انتباهك عبير البخور، ميره ممثلة قلب العطر النابض، وعندما يستقر العطر ستشعر بروائح السوسن، كشمير تغمرك. نبذة عن الماركة:رالف لورين هو مصمم أزياء أمريكي معروف بخط بولو الشهير وخطوط الملابس والإكسسوارات والديكور المنزلي الأخرى وبالطبع العطور المميزة والفريدة. </t>
-  </si>
-  <si>
-    <t>جون فارفاتوس فينتج للرجال الخشبي من أجمل هذه الدار، بتركيبة فريدة من نوعها ومزيج متجانس، والنتيجة هي فاخر حساس فريد.  بالفعل اليجب أن يكون من مجموعتك القادمة!</t>
-  </si>
-  <si>
-    <t>توليفة عطرية ذكورية من الطراز الرفيع تكشف عن اسرارك الجميلة وجوانبك المضيئة في روحك المنتعشة بفضل زهور اللافندر والفانيليا المغموسة بكل حب في سائل العنبر الفواح لتنال إعجاب الجميع وتلفت كل الأنظارنبذة عن الماركة:كارون هو بيت عطور فرنسي أسسه إيرنست دالتروف في عام 1904 ولم يكن ذو خبرة أو تدريب في عالم العطور آنذاك ولكن شغفه الشديد بالمجال جعل والدته تدفع به للتدريب والدراسة حتى أطلق أول عطر في عام 1911 ثم بيع الشركة بعد ذلك لباتريك أليس كارون في عام 1998 وقدم مجموعة من العطور الأنيقة والفاخرة ولم يتوقف إصداره حتى الآن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المكونات العليا هي الكرز والقرفة والليمون الصقلي وجوزة الطيب. قلب العطر الكوكاكولا ، أوراق الباتشولي الإندونيسي وزهر البرتقال ؛قاعدة العطر هي التونكا ، الفانيليا ، البنزوين واللابدانوم. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الخط العطري: اورينتال فيوجيرعطر بارفام دي مارلي بيغاسوس يجمع مابين سحر الورود ودفء الأخشاب من جهةورائحة البرغموت ولمسات الفانيليا من جهة أخرىنغمات عطر مارلي تبداء باللوز والبرغموت ورائحة اللوز في أفتتاحية العطر. فيما تتركز رائحة الفانيليا والعنبر في القاعدة ولمسات خشب الصندل واضحة في خاتمة العطر عطر بارفام دي مارلي بيغاسوس يجمع مابين سحر الورود ودفء الأخشاب من جهة . .  ورائحة البرغموت ولمسات الفانيليا من جهة أخرى . . نغمات عطر مارلي تبداء باللوز والبرغموت ورائحة اللوز في أفتتاحية العطر رائعة فيما تتركز رائحة الفانيليا والعنبر في القاعدة ولمسات خشب الصندل واضحة في خاتمة العطر. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر شرقي للرجال و النساء .  Layton Exclusif تم إصداره عام 2017.  Hamid Merati-Kashani قام بتوقيع هذا العطر.  مقدمة العطر اللوز, اليوسفي, البرغموت و رائحه الماء; قلب العطر الزباد, إبره الراعي, الورد, الغاردينيا و زنبق الماء; قاعدة العطر تتكون من أخشاب الغاياك, العود اللاوسي, الفانيليا, القهوه, خشب الصندل, أوراق الباتشولي الإندونيسي, الأواكموس- طحلب البلوط, العنبر و الفلفل الوردي. </t>
-  </si>
-  <si>
-    <t>من مروج دمشق اليانعة جمعنا لك أفضل الورود وغلفناها بالبخور الدافئ في زجاجة عطرية أنيقة تحمل بين جنبيها عطر يداعب روحك مع أول تجربة ويأخذك في رحلة هادئة داخل تلك المروج لتتمتع روحك الحالمة بلحظات مملوءة بالراحة والسكينةنبذة عن الماركة:بولغاري هي دار عطور إيطالية عريقة أسسها سوتيريوس فولجاري في إيطاليا عام 1884 وقد استبدل حرف "U" بحرف "V" في اسم الشركة اقتداءً باللغة اللاتينية القديمة التي هي لغة موطنه الأصلي اليونان، وافتتح أول منفذ بيع للعطور التي أنتجها عام 1905 في فيا دي كوندوتي وعرض خلاله مجموعة من أفخم وأرقى العطور الرجالية والنسائية وسرعان ما اشتهر وافتتح له منافذ بيع في الأسواق الدولية في نيويورك وجينيف وغيرها حول العالم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إصدار أكثر تركيزاً لعطر أكوا دي جيو الكلاسيكي للرجال. عطر يفوح بنفحات النضارة و التركيز لتدوم طويلاً، حيث تمتزج المكونات البحرية المبتكرة مع الماندرين الأخضر الطبيعي، والمريمية، ونجيل الهند، والباتشولي، والمعدن الخشبي الجاف. يلتقط هذا العطر أفق البحار اللامتناهي في زجاجة إعادة تعبئة مبتكرة جديدة. عائلة العطر:فرش منعشالمكونات الرئيسية:النفحات البحرية، اليوسفي، البرغموت، زهر البرتقال، البرسيمون، إكليل الجبل، الكبوسين، الياسمين، العنبر، الباتشولي، القشطةعن الزجاجة:تحتوي هذه الزجاجة الأنيقة والشفافة بالكامل على سائل عطر غير ملون قوي ولكنه متبلور.  رجولي، أساسي، أنيق. الزجاجة مغطاة بغطاء خشبي داكن، مما يستحضر التوازن بين الهندسة المعمارية والطبيعة. تم تصميم هذه الزجاجة الثمينة والقابلة لإعادة التعبئة لتدوم طويلاً. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر أو دو برفيوم شرقي خشبي للرجال، يباغتك لأول وهلة بنسيم مفعم بروائح الخشب الأبنوس ثم يلفت انتباهك عبير قهوة ممثلة قلب العطر النابض، وعندما يستقر العطر ستشعر بروائح برتقال دم الزغلول تغمرك. نبذة عن الماركة:رالف لورين هو مصمم أزياء أمريكي معروف بخط بولو الشهير وخطوط الملابس والإكسسوارات والديكور المنزلي الأخرى وبالطبع العطور المميزة والفريدة. </t>
-  </si>
-  <si>
-    <t>تصميم عطري فاخر وأنيق للرجال من البرجموت والجريب فروت المنعشلمسات العطر الشرقية من الهيل ونجيل الهند تضيف لمظهرك جمال خاص ومميز لتثير الانتباه نحوكاستمتع بإطلالة حديثة وأنيقة مع توليفة العطر المفعمة بذرات القرفة والباتشولي الدافئة والهادئةرائحة العطر هي الخيار الأمثل لكل المناسبات والأيام المميزة في فصول الشتاء والخريف الغامضةنبذة عن الماركة:كوستوم ناشونال هي دار أزياء إيطالية تأسست في عام 1986 وقدمت مجموعة من الأزياء التي تجمع بين الجرأة والحداثة والجمال والأناقة وأضافت إلى ذلك مجموعة من العطور التي صممت بنفس الفكر الإبداعي المتميز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن العطر:سكوديريا فيراري بلاك من دار فيراري هو عطر فوجير رجالي فوّاح.  تنبعث من العطر رائحة جميلة ممزوجة بطريقة مميّزة.  حيث تبرز النوتات العليا روائح الجير، والبرغموت، والتفاح إضافةً إلى الروائح الدافئة والحلوة للبرقوق ولمسة من الحمضيات.  ويظهر قلب العطر مزيج روائح الهال، والورد، والياسمين مع القرفة التي تساهم في توازن الروائح.  تمزج قاعدة العطر بين الأرز، والعنبر، الفانيليا، ولمسة من المسك.  سكوديريا فيراري بلاك هو عطرٌ مثالي للطقس البارد.  اجعل نفسك محطّاً للأنظار مع هذا العطر اللطيف والجميل. نبذة عن الماركة:بدأت فيراري، التي تم تأسيسها عام 1929، كراعٍ لفاعليات وسائقي السيارات الرياضية وشركة مصنّعة لسيارات السباق.  في عام 1999، غزت العلامة التجارية منطقة جديدة، وأصدرت أول عطر لها، وهو عطر فيراري بلاك.  تميّزت التركيبة الشرقية بروائح حلوة وحققت نجاحاً تجارياً لا يزال يستقطب عملاء جدد حتى يومنا هذا.  تواصل العلامة التجارية إثبات نفسها كعلامة كبيرة في هذا القطّاع، حيث يتم اختيارها كأفضل عطور رجالية في جميع أنحاء العالم. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عطر يجسد روح و حياة الرجل العصري فهو عطر مفعم بالرجولة والحيوية ويعزز إحساس الثقة كما أنه يحمل بين طياته رائحة كلاسيكية و منعشة لتضيف رونقاً للرجل بلمساته الخشبية الدافئة. نبذة عن هذه الماركة:أسس كالفين ريتشارد كلاين الماركة العالمية "كالفين كلاين" في عام 1968 .  كانت بدايتها في صناعة الملابس ثم انتقلت إلى تقديم الساعات ، المجوهرات والعطورالأنثوية والذكورية التي تأسر الجميع من النفحة الأولى . </t>
+    <t>عطر Miss Dior ...</t>
+  </si>
+  <si>
+    <t>استوحت الماركة...</t>
+  </si>
+  <si>
+    <t>عن العطر:أنتي ...</t>
+  </si>
+  <si>
+    <t>هو عطر شرقي زه...</t>
+  </si>
+  <si>
+    <t>الخط العطري : ...</t>
+  </si>
+  <si>
+    <t>عن العطر:- عطر...</t>
+  </si>
+  <si>
+    <t>عطر شرقي زهري ...</t>
+  </si>
+  <si>
+    <t>مقدمة العطر: ا...</t>
+  </si>
+  <si>
+    <t>تدفع دار كيليا...</t>
+  </si>
+  <si>
+    <t>عطر زهري - فوا...</t>
+  </si>
+  <si>
+    <t>الخط العطري: ع...</t>
+  </si>
+  <si>
+    <t>عطر زهري فواكه...</t>
+  </si>
+  <si>
+    <t>أميز موا هو اب...</t>
+  </si>
+  <si>
+    <t>عطر للنساء ذوا...</t>
+  </si>
+  <si>
+    <t>الخط العطري: ف...</t>
+  </si>
+  <si>
+    <t>عطر شرقي - زهر...</t>
+  </si>
+  <si>
+    <t>أنت على موعد م...</t>
+  </si>
+  <si>
+    <t>المكوناتزهر ال...</t>
+  </si>
+  <si>
+    <t>يتم دفن ثنائي ...</t>
+  </si>
+  <si>
+    <t>حول الفلفل: خل...</t>
+  </si>
+  <si>
+    <t>عطر للجنسين.  ...</t>
+  </si>
+  <si>
+    <t>عطر فايف من دا...</t>
+  </si>
+  <si>
+    <t>عطر زهري - خشب...</t>
+  </si>
+  <si>
+    <t>عطر إسنتريك مو...</t>
+  </si>
+  <si>
+    <t>الافتتاحية: ال...</t>
+  </si>
+  <si>
+    <t>Sadonaso Nasom...</t>
+  </si>
+  <si>
+    <t>عطر شرقي ذكوري...</t>
+  </si>
+  <si>
+    <t>في رحلة فريدة ...</t>
+  </si>
+  <si>
+    <t>عن العطر:عطر أ...</t>
+  </si>
+  <si>
+    <t>توليفة عطرية ذ...</t>
+  </si>
+  <si>
+    <t>المكونات العلي...</t>
+  </si>
+  <si>
+    <t>الخط العطري: ا...</t>
+  </si>
+  <si>
+    <t>عطر شرقي للرجا...</t>
+  </si>
+  <si>
+    <t>من مروج دمشق ا...</t>
+  </si>
+  <si>
+    <t>إصدار أكثر ترك...</t>
+  </si>
+  <si>
+    <t>عطر أو دو برفي...</t>
+  </si>
+  <si>
+    <t>تصميم عطري فاخ...</t>
+  </si>
+  <si>
+    <t>عن العطر:سكودي...</t>
+  </si>
+  <si>
+    <t>عطر يجسد روح و...</t>
   </si>
   <si>
     <t>نسائي</t>
@@ -403,31 +376,28 @@
     <t>رجالي</t>
   </si>
   <si>
-    <t>كلايف كريستيان clive christian</t>
-  </si>
-  <si>
-    <t>استي لودر estee lauder</t>
-  </si>
-  <si>
-    <t>جيمي شوو jimmy choo</t>
-  </si>
-  <si>
-    <t>ديور جادور dior j adore</t>
-  </si>
-  <si>
-    <t>بوديسيا ذا فيكتوريوس boadicea</t>
+    <t>استي لودر este...</t>
+  </si>
+  <si>
+    <t>جيمي شوو jimmy...</t>
+  </si>
+  <si>
+    <t>ديور جادور dio...</t>
+  </si>
+  <si>
+    <t>بوديسيا ذا فيك...</t>
   </si>
   <si>
     <t>جريس gres</t>
   </si>
   <si>
-    <t>ارماني giorgio armani</t>
+    <t>ارماني giorgio...</t>
   </si>
   <si>
     <t>كيليان kilian</t>
   </si>
   <si>
-    <t>نيشاني nishane</t>
+    <t>نيشاني nishane...</t>
   </si>
   <si>
     <t>قوتشي gucci</t>
@@ -436,190 +406,58 @@
     <t>فلوريس floris</t>
   </si>
   <si>
-    <t>ايتات ليبر دي اورانج etat</t>
-  </si>
-  <si>
-    <t>شوبارد chopard</t>
+    <t>ايتات ليبر دي ...</t>
+  </si>
+  <si>
+    <t>شوبارد chopard...</t>
   </si>
   <si>
     <t>كارون caron</t>
   </si>
   <si>
-    <t>روسيندو ماتيو rosendo mateu</t>
-  </si>
-  <si>
-    <t>ليكويد ايماجيناير liquides</t>
-  </si>
-  <si>
-    <t>ايسنتريك escentric molecules</t>
-  </si>
-  <si>
-    <t>مين نيويورك min new york</t>
-  </si>
-  <si>
-    <t>ناسوماتو nasomatto</t>
+    <t>روسيندو ماتيو ...</t>
+  </si>
+  <si>
+    <t>ليكويد ايماجين...</t>
+  </si>
+  <si>
+    <t>ايسنتريك escen...</t>
+  </si>
+  <si>
+    <t>مين نيويورك mi...</t>
+  </si>
+  <si>
+    <t>ناسوماتو nasom...</t>
   </si>
   <si>
     <t>ثمين thameen</t>
   </si>
   <si>
-    <t>بفلجاري bvlgari</t>
-  </si>
-  <si>
-    <t>رالف لورين ralph lauren</t>
-  </si>
-  <si>
-    <t>جون فارفاتوس john varvatos</t>
-  </si>
-  <si>
-    <t>مانسيرا mancera</t>
-  </si>
-  <si>
-    <t>مارلي parfum de marly</t>
-  </si>
-  <si>
-    <t>كوستوم ناشونال costume natio</t>
-  </si>
-  <si>
-    <t>فيراري ferrari</t>
-  </si>
-  <si>
-    <t>كالفن كلاين calvin klein</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image620.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image412.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image536.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image457.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image568.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image385.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image607.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image598.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image553.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image595.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image823.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image435.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image596.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image619.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image498.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image687.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image688.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image689.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image690.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image691.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image692.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image693.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image694.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image696.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image697.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image698.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image700.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image701.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image702.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image703.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image212.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image307.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image244.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image346.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image48.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image695.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image82.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image353.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image195.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image322.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image108.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image288.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image83.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image239.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/parfumes/main/images/image340.jpg</t>
+    <t>بفلجاري bvlgar...</t>
+  </si>
+  <si>
+    <t>رالف لورين ral...</t>
+  </si>
+  <si>
+    <t>جون فارفاتوس j...</t>
+  </si>
+  <si>
+    <t>مانسيرا mancer...</t>
+  </si>
+  <si>
+    <t>مارلي parfum d...</t>
+  </si>
+  <si>
+    <t>كوستوم ناشونال...</t>
+  </si>
+  <si>
+    <t>فيراري ferrari...</t>
+  </si>
+  <si>
+    <t>كالفن كلاين ca...</t>
+  </si>
+  <si>
+    <t>https://raw.gi...</t>
   </si>
   <si>
     <t>image620.jpg</t>
@@ -1159,19 +997,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1179,22 +1017,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1202,22 +1040,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1225,22 +1063,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1248,22 +1086,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1271,22 +1109,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1294,19 +1132,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1314,22 +1152,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1337,22 +1175,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1360,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
         <v>126</v>
       </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1383,22 +1221,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1406,775 +1244,775 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
         <v>126</v>
       </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="E25" t="s">
-        <v>137</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
